--- a/electricity-and-magnetism/3-2-4/data/3-2-4.xlsx
+++ b/electricity-and-magnetism/3-2-4/data/3-2-4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">R, Ом</t>
   </si>
@@ -47,6 +47,15 @@
     <t>x0</t>
   </si>
   <si>
+    <t xml:space="preserve">C, \mu F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_{mes}, s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_{th}, s</t>
+  </si>
+  <si>
     <t>U_k</t>
   </si>
   <si>
@@ -66,8 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="160" formatCode="0.0000"/>
+    <numFmt numFmtId="161" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -286,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,10 +363,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,7 +890,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="D12" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1665,10 +1691,16 @@
       <c r="H14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -1712,14 +1744,22 @@
       <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="30">
         <f>B15*F15*G15/(E15*C15*D15)</f>
         <v>0.00063492063492063481</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="31">
+        <f>H15</f>
+        <v>0.00063492063492063481</v>
+      </c>
+      <c r="L15" s="19">
+        <f>2*3.14*SQRT(J15*0.000001*0.146)</f>
+        <v>0.00033935251288299016</v>
+      </c>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
@@ -1763,14 +1803,22 @@
       <c r="G16" s="17">
         <v>2</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="30">
         <f>B16*F16*G16/(E16*C16*D16)</f>
         <v>0.010612244897959184</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="K16" s="30">
+        <f>H16</f>
+        <v>0.010612244897959184</v>
+      </c>
+      <c r="L16" s="19">
+        <f>2*3.14*SQRT(J16*0.000001*0.146)</f>
+        <v>0.00086518254258855691</v>
+      </c>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -1814,14 +1862,22 @@
       <c r="G17" s="17">
         <v>2</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="30">
         <f>B17*F17*G17/(E17*C17*D17)</f>
         <v>0.027428571428571431</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="16">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="K17" s="30">
+        <f>H17</f>
+        <v>0.027428571428571431</v>
+      </c>
+      <c r="L17" s="19">
+        <f>2*3.14*SQRT(J17*0.000001*0.146)</f>
+        <v>0.001175551587979022</v>
+      </c>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -1865,14 +1921,22 @@
       <c r="G18" s="17">
         <v>2</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="30">
         <f>B18*F18*G18/(E18*C18*D18)</f>
         <v>0.048000000000000015</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="16">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="K18" s="30">
+        <f>H18</f>
+        <v>0.048000000000000015</v>
+      </c>
+      <c r="L18" s="19">
+        <f>2*3.14*SQRT(J18*0.000001*0.146)</f>
+        <v>0.0014196134121654388</v>
+      </c>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -1916,14 +1980,22 @@
       <c r="G19" s="17">
         <v>2</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="30">
         <f>B19*F19*G19/(E19*C19*D19)</f>
         <v>0.071847619047619049</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="16">
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="K19" s="30">
+        <f>H19</f>
+        <v>0.071847619047619049</v>
+      </c>
+      <c r="L19" s="19">
+        <f>2*3.14*SQRT(J19*0.000001*0.146)</f>
+        <v>0.0016274774787996302</v>
+      </c>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -1948,7 +2020,7 @@
       <c r="AH19" s="20"/>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="16">
         <v>0.57000000000000006</v>
       </c>
@@ -1967,14 +2039,22 @@
       <c r="G20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="31">
         <f>B20*F20*G20/(E20*C20*D20)</f>
         <v>0.099885714285714286</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="16">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="K20" s="30">
+        <f>H20</f>
+        <v>0.099885714285714286</v>
+      </c>
+      <c r="L20" s="19">
+        <f>2*3.14*SQRT(J20*0.000001*0.146)</f>
+        <v>0.0018116466675375748</v>
+      </c>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
@@ -2017,9 +2097,20 @@
       <c r="G21" s="17">
         <v>2</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="31">
         <f>B21*F21*G21/(E21*C21*D21)</f>
         <v>0.12952380952380954</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="K21" s="30">
+        <f>H21</f>
+        <v>0.12952380952380954</v>
+      </c>
+      <c r="L21" s="19">
+        <f>2*3.14*SQRT(J21*0.000001*0.146)</f>
+        <v>0.001978748178015586</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
@@ -2041,9 +2132,20 @@
       <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="31">
         <f>B22*F22*G22/(E22*C22*D22)</f>
         <v>0.15549206349206351</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.79000000000000015</v>
+      </c>
+      <c r="K22" s="30">
+        <f>H22</f>
+        <v>0.15549206349206351</v>
+      </c>
+      <c r="L22" s="19">
+        <f>2*3.14*SQRT(J22*0.000001*0.146)</f>
+        <v>0.0021327974718664687</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
@@ -2065,9 +2167,20 @@
       <c r="G23" s="22">
         <v>2</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="33">
         <f>B23*F23*G23/(E23*C23*D23)</f>
         <v>0.19714285714285729</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0.90000000000000069</v>
+      </c>
+      <c r="K23" s="30">
+        <f>H23</f>
+        <v>0.19714285714285729</v>
+      </c>
+      <c r="L23" s="19">
+        <f>2*3.14*SQRT(J23*0.000001*0.146)</f>
+        <v>0.0022764458614252187</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1"/>
@@ -2095,20 +2208,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
@@ -2124,7 +2237,7 @@
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="35">
         <f t="shared" ref="E2:E9" si="2">(LN(C2/D2)/B2)</f>
         <v>0.46209812037329684</v>
       </c>
@@ -2142,7 +2255,7 @@
       <c r="D3" s="17">
         <v>0.5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="35">
         <f t="shared" si="2"/>
         <v>0.59725315640935162</v>
       </c>
@@ -2160,7 +2273,7 @@
       <c r="D4" s="17">
         <v>0.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="35">
         <f t="shared" si="2"/>
         <v>0.74080227046210778</v>
       </c>
@@ -2178,7 +2291,7 @@
       <c r="D5" s="17">
         <v>0.59999999999999998</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="35">
         <f t="shared" si="2"/>
         <v>0.94855999244294065</v>
       </c>
@@ -2196,7 +2309,7 @@
       <c r="D6" s="17">
         <v>0.40000000000000002</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="35">
         <f t="shared" si="2"/>
         <v>1.0700330817481354</v>
       </c>
@@ -2214,7 +2327,7 @@
       <c r="D7" s="17">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="35">
         <f t="shared" si="2"/>
         <v>1.151292546497023</v>
       </c>
@@ -2283,13 +2396,28 @@
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
@@ -2307,6 +2435,22 @@
       </c>
       <c r="E2" s="17">
         <f>(LN(C2/D2)/B2)</f>
+        <v>0.45814536593707755</v>
+      </c>
+      <c r="G2" s="17">
+        <v>740</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2</v>
+      </c>
+      <c r="I2" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="K2" s="17">
+        <f>(LN(I2/J2)/H2)</f>
         <v>0.45814536593707755</v>
       </c>
     </row>
@@ -2318,6 +2462,22 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
+      <c r="G3" s="17">
+        <v>1970</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="K3" s="17">
+        <f>(LN(I3/J3)/H3)</f>
+        <v>1.2039728043259361</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="17">

--- a/electricity-and-magnetism/3-2-4/data/3-2-4.xlsx
+++ b/electricity-and-magnetism/3-2-4/data/3-2-4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Измерение периодов" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">R, Ом</t>
   </si>
@@ -65,6 +65,9 @@
     <t>d</t>
   </si>
   <si>
+    <t xml:space="preserve">R_L, Ом</t>
+  </si>
+  <si>
     <t>X_k</t>
   </si>
   <si>
@@ -75,9 +78,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="160" formatCode="0.0000"/>
-    <numFmt numFmtId="161" formatCode="0.000"/>
+    <numFmt numFmtId="161" formatCode="0.00000"/>
+    <numFmt numFmtId="162" formatCode="0.0"/>
+    <numFmt numFmtId="163" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -364,25 +369,19 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="162" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="163" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +889,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="H6" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1692,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="20"/>
@@ -1744,25 +1743,31 @@
       <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="30">
-        <f>B15*F15*G15/(E15*C15*D15)</f>
-        <v>0.00063492063492063481</v>
+      <c r="H15" s="28">
+        <f>0.01*F15*G15/(E15*C15*D15)</f>
+        <v>0.00031746031746031741</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="16">
         <v>0.02</v>
       </c>
-      <c r="K15" s="31">
-        <f>H15</f>
-        <v>0.00063492063492063481</v>
-      </c>
-      <c r="L15" s="19">
-        <f>2*3.14*SQRT(J15*0.000001*0.146)</f>
+      <c r="K15" s="29">
+        <f t="shared" ref="K15:K23" si="2">H15</f>
+        <v>0.00031746031746031741</v>
+      </c>
+      <c r="L15" s="30">
+        <f t="shared" ref="L15:L23" si="3">2*3.14*SQRT(J15*0.000001*0.146)</f>
         <v>0.00033935251288299016</v>
       </c>
       <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="N15" s="31">
+        <f>K15*100000</f>
+        <v>31.74603174603174</v>
+      </c>
+      <c r="O15" s="31">
+        <f>L15*100000</f>
+        <v>33.935251288299014</v>
+      </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -1803,25 +1808,31 @@
       <c r="G16" s="17">
         <v>2</v>
       </c>
-      <c r="H16" s="30">
-        <f>B16*F16*G16/(E16*C16*D16)</f>
-        <v>0.010612244897959184</v>
+      <c r="H16" s="28">
+        <f>0.01*F16*G16/(E16*C16*D16)</f>
+        <v>0.00081632653061224482</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="16">
         <v>0.13</v>
       </c>
-      <c r="K16" s="30">
-        <f>H16</f>
-        <v>0.010612244897959184</v>
-      </c>
-      <c r="L16" s="19">
-        <f>2*3.14*SQRT(J16*0.000001*0.146)</f>
+      <c r="K16" s="29">
+        <f t="shared" si="2"/>
+        <v>0.00081632653061224482</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="3"/>
         <v>0.00086518254258855691</v>
       </c>
       <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="N16" s="31">
+        <f>K16*100000</f>
+        <v>81.632653061224488</v>
+      </c>
+      <c r="O16" s="31">
+        <f>L16*100000</f>
+        <v>86.518254258855691</v>
+      </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -1862,25 +1873,31 @@
       <c r="G17" s="17">
         <v>2</v>
       </c>
-      <c r="H17" s="30">
-        <f>B17*F17*G17/(E17*C17*D17)</f>
-        <v>0.027428571428571431</v>
+      <c r="H17" s="28">
+        <f>0.01*F17*G17/(E17*C17*D17)</f>
+        <v>0.0011428571428571427</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="16">
         <v>0.24000000000000002</v>
       </c>
-      <c r="K17" s="30">
-        <f>H17</f>
-        <v>0.027428571428571431</v>
-      </c>
-      <c r="L17" s="19">
-        <f>2*3.14*SQRT(J17*0.000001*0.146)</f>
+      <c r="K17" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0011428571428571427</v>
+      </c>
+      <c r="L17" s="30">
+        <f t="shared" si="3"/>
         <v>0.001175551587979022</v>
       </c>
       <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="N17" s="32">
+        <f>K17*100000</f>
+        <v>114.28571428571428</v>
+      </c>
+      <c r="O17" s="32">
+        <f>L17*100000</f>
+        <v>117.55515879790219</v>
+      </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -1921,25 +1938,31 @@
       <c r="G18" s="17">
         <v>2</v>
       </c>
-      <c r="H18" s="30">
-        <f>B18*F18*G18/(E18*C18*D18)</f>
-        <v>0.048000000000000015</v>
+      <c r="H18" s="28">
+        <f>0.01*F18*G18/(E18*C18*D18)</f>
+        <v>0.0013714285714285716</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="16">
         <v>0.35000000000000009</v>
       </c>
-      <c r="K18" s="30">
-        <f>H18</f>
-        <v>0.048000000000000015</v>
-      </c>
-      <c r="L18" s="19">
-        <f>2*3.14*SQRT(J18*0.000001*0.146)</f>
+      <c r="K18" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0013714285714285716</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" si="3"/>
         <v>0.0014196134121654388</v>
       </c>
       <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="N18" s="32">
+        <f>K18*100000</f>
+        <v>137.14285714285717</v>
+      </c>
+      <c r="O18" s="32">
+        <f>L18*100000</f>
+        <v>141.96134121654387</v>
+      </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -1980,25 +2003,31 @@
       <c r="G19" s="17">
         <v>2</v>
       </c>
-      <c r="H19" s="30">
-        <f>B19*F19*G19/(E19*C19*D19)</f>
-        <v>0.071847619047619049</v>
+      <c r="H19" s="28">
+        <f>0.01*F19*G19/(E19*C19*D19)</f>
+        <v>0.0015619047619047617</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="16">
         <v>0.46000000000000008</v>
       </c>
-      <c r="K19" s="30">
-        <f>H19</f>
-        <v>0.071847619047619049</v>
-      </c>
-      <c r="L19" s="19">
-        <f>2*3.14*SQRT(J19*0.000001*0.146)</f>
+      <c r="K19" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0015619047619047617</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="3"/>
         <v>0.0016274774787996302</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="N19" s="32">
+        <f>K19*100000</f>
+        <v>156.19047619047618</v>
+      </c>
+      <c r="O19" s="32">
+        <f>L19*100000</f>
+        <v>162.74774787996301</v>
+      </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
@@ -2020,7 +2049,7 @@
       <c r="AH19" s="20"/>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="16">
         <v>0.57000000000000006</v>
       </c>
@@ -2039,25 +2068,31 @@
       <c r="G20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="31">
-        <f>B20*F20*G20/(E20*C20*D20)</f>
-        <v>0.099885714285714286</v>
+      <c r="H20" s="28">
+        <f>0.01*F20*G20/(E20*C20*D20)</f>
+        <v>0.0017523809523809523</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="16">
         <v>0.57000000000000006</v>
       </c>
-      <c r="K20" s="30">
-        <f>H20</f>
-        <v>0.099885714285714286</v>
-      </c>
-      <c r="L20" s="19">
-        <f>2*3.14*SQRT(J20*0.000001*0.146)</f>
+      <c r="K20" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0017523809523809523</v>
+      </c>
+      <c r="L20" s="30">
+        <f t="shared" si="3"/>
         <v>0.0018116466675375748</v>
       </c>
       <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="N20" s="32">
+        <f>K20*100000</f>
+        <v>175.23809523809524</v>
+      </c>
+      <c r="O20" s="32">
+        <f>L20*100000</f>
+        <v>181.16466675375747</v>
+      </c>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
@@ -2097,20 +2132,28 @@
       <c r="G21" s="17">
         <v>2</v>
       </c>
-      <c r="H21" s="31">
-        <f>B21*F21*G21/(E21*C21*D21)</f>
-        <v>0.12952380952380954</v>
+      <c r="H21" s="28">
+        <f>0.01*F21*G21/(E21*C21*D21)</f>
+        <v>0.0019047619047619048</v>
       </c>
       <c r="J21" s="16">
         <v>0.68000000000000016</v>
       </c>
-      <c r="K21" s="30">
-        <f>H21</f>
-        <v>0.12952380952380954</v>
-      </c>
-      <c r="L21" s="19">
-        <f>2*3.14*SQRT(J21*0.000001*0.146)</f>
+      <c r="K21" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0019047619047619048</v>
+      </c>
+      <c r="L21" s="30">
+        <f t="shared" si="3"/>
         <v>0.001978748178015586</v>
+      </c>
+      <c r="N21" s="32">
+        <f>K21*100000</f>
+        <v>190.47619047619048</v>
+      </c>
+      <c r="O21" s="32">
+        <f>L21*100000</f>
+        <v>197.87481780155861</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
@@ -2132,20 +2175,28 @@
       <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H22" s="31">
-        <f>B22*F22*G22/(E22*C22*D22)</f>
-        <v>0.15549206349206351</v>
+      <c r="H22" s="28">
+        <f>0.01*F22*G22/(E22*C22*D22)</f>
+        <v>0.0019682539682539684</v>
       </c>
       <c r="J22" s="16">
         <v>0.79000000000000015</v>
       </c>
-      <c r="K22" s="30">
-        <f>H22</f>
-        <v>0.15549206349206351</v>
-      </c>
-      <c r="L22" s="19">
-        <f>2*3.14*SQRT(J22*0.000001*0.146)</f>
+      <c r="K22" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0019682539682539684</v>
+      </c>
+      <c r="L22" s="30">
+        <f t="shared" si="3"/>
         <v>0.0021327974718664687</v>
+      </c>
+      <c r="N22" s="32">
+        <f>K22*100000</f>
+        <v>196.82539682539684</v>
+      </c>
+      <c r="O22" s="32">
+        <f>L22*100000</f>
+        <v>213.27974718664686</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
@@ -2167,20 +2218,28 @@
       <c r="G23" s="22">
         <v>2</v>
       </c>
-      <c r="H23" s="33">
-        <f>B23*F23*G23/(E23*C23*D23)</f>
-        <v>0.19714285714285729</v>
+      <c r="H23" s="28">
+        <f>0.01*F23*G23/(E23*C23*D23)</f>
+        <v>0.0021904761904761906</v>
       </c>
       <c r="J23" s="21">
         <v>0.90000000000000069</v>
       </c>
-      <c r="K23" s="30">
-        <f>H23</f>
-        <v>0.19714285714285729</v>
-      </c>
-      <c r="L23" s="19">
-        <f>2*3.14*SQRT(J23*0.000001*0.146)</f>
+      <c r="K23" s="29">
+        <f t="shared" si="2"/>
+        <v>0.0021904761904761906</v>
+      </c>
+      <c r="L23" s="30">
+        <f t="shared" si="3"/>
         <v>0.0022764458614252187</v>
+      </c>
+      <c r="N23" s="32">
+        <f>K23*100000</f>
+        <v>219.04761904761907</v>
+      </c>
+      <c r="O23" s="32">
+        <f>L23*100000</f>
+        <v>227.64458614252186</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1"/>
@@ -2208,7 +2267,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2222,6 +2281,9 @@
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
@@ -2237,9 +2299,20 @@
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="35">
-        <f t="shared" ref="E2:E9" si="2">(LN(C2/D2)/B2)</f>
+      <c r="E2" s="34">
+        <f t="shared" ref="E2:E9" si="4">(LN(C2/D2)/B2)</f>
         <v>0.46209812037329684</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" s="35">
+        <f>10000/(A2+$F$2)</f>
+        <v>13.262599469496021</v>
+      </c>
+      <c r="H2" s="35">
+        <f>1/(E2*E2)</f>
+        <v>4.6830802072626181</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
@@ -2255,9 +2328,17 @@
       <c r="D3" s="17">
         <v>0.5</v>
       </c>
-      <c r="E3" s="35">
-        <f t="shared" si="2"/>
+      <c r="E3" s="34">
+        <f t="shared" si="4"/>
         <v>0.59725315640935162</v>
+      </c>
+      <c r="G3" s="35">
+        <f>10000/(A3+$F$2)</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="35">
+        <f>1/(E3*E3)</f>
+        <v>2.8033872432248326</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
@@ -2273,9 +2354,17 @@
       <c r="D4" s="17">
         <v>0.5</v>
       </c>
-      <c r="E4" s="35">
-        <f t="shared" si="2"/>
+      <c r="E4" s="34">
+        <f t="shared" si="4"/>
         <v>0.74080227046210778</v>
+      </c>
+      <c r="G4" s="35">
+        <f>10000/(A4+$F$2)</f>
+        <v>8.0256821829855536</v>
+      </c>
+      <c r="H4" s="35">
+        <f>1/(E4*E4)</f>
+        <v>1.8221972653441427</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -2291,9 +2380,17 @@
       <c r="D5" s="17">
         <v>0.59999999999999998</v>
       </c>
-      <c r="E5" s="35">
-        <f t="shared" si="2"/>
+      <c r="E5" s="34">
+        <f t="shared" si="4"/>
         <v>0.94855999244294065</v>
+      </c>
+      <c r="G5" s="35">
+        <f>10000/(A5+$F$2)</f>
+        <v>6.7024128686327078</v>
+      </c>
+      <c r="H5" s="35">
+        <f>1/(E5*E5)</f>
+        <v>1.1114000019279577</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
@@ -2309,9 +2406,17 @@
       <c r="D6" s="17">
         <v>0.40000000000000002</v>
       </c>
-      <c r="E6" s="35">
-        <f t="shared" si="2"/>
+      <c r="E6" s="34">
+        <f t="shared" si="4"/>
         <v>1.0700330817481354</v>
+      </c>
+      <c r="G6" s="35">
+        <f>10000/(A6+$F$2)</f>
+        <v>5.7537399309551205</v>
+      </c>
+      <c r="H6" s="35">
+        <f>1/(E6*E6)</f>
+        <v>0.87338472165631709</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
@@ -2327,9 +2432,17 @@
       <c r="D7" s="17">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E7" s="35">
-        <f t="shared" si="2"/>
+      <c r="E7" s="34">
+        <f t="shared" si="4"/>
         <v>1.151292546497023</v>
+      </c>
+      <c r="G7" s="35">
+        <f>10000/(A7+$F$2)</f>
+        <v>5.040322580645161</v>
+      </c>
+      <c r="H7" s="35">
+        <f>1/(E7*E7)</f>
+        <v>0.75444678804645549</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
@@ -2338,7 +2451,11 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f>1/(E8*E8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2348,7 +2465,11 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f>1/(E9*E9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2358,6 +2479,10 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
+      <c r="H10" t="e">
+        <f>1/(E10*E10)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="17"/>
@@ -2365,6 +2490,10 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
+      <c r="H11" t="e">
+        <f>1/(E11*E11)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="1"/>
     <row r="13" ht="30" customHeight="1"/>
@@ -2396,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
@@ -2411,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>15</v>
@@ -2450,7 +2579,7 @@
         <v>1.3999999999999999</v>
       </c>
       <c r="K2" s="17">
-        <f>(LN(I2/J2)/H2)</f>
+        <f t="shared" ref="K2:K3" si="5">(LN(I2/J2)/H2)</f>
         <v>0.45814536593707755</v>
       </c>
     </row>
@@ -2475,7 +2604,7 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="K3" s="17">
-        <f>(LN(I3/J3)/H3)</f>
+        <f t="shared" si="5"/>
         <v>1.2039728043259361</v>
       </c>
     </row>
